--- a/Coursework2/cw2_2.xlsx
+++ b/Coursework2/cw2_2.xlsx
@@ -473,19 +473,19 @@
         <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001417000021319836</v>
+        <v>0.0001232000067830086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8831054000038421</v>
+        <v>0.9818241596221924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6026632785797119</v>
+        <v>0.6510190963745117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0274762000044575</v>
+        <v>0.03268169995862991</v>
       </c>
       <c r="G2" t="n">
-        <v>1.513386578590143</v>
+        <v>1.665648155962117</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002103000006172806</v>
+        <v>0.000228599994443357</v>
       </c>
       <c r="D3" t="n">
-        <v>1.7659496999986</v>
+        <v>1.927038669586182</v>
       </c>
       <c r="E3" t="n">
-        <v>1.221347332000732</v>
+        <v>1.28560996055603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03212379998876713</v>
+        <v>0.03384719998575747</v>
       </c>
       <c r="G3" t="n">
-        <v>3.019631131988717</v>
+        <v>3.246724430122413</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005297000025166199</v>
+        <v>0.0007169999880716205</v>
       </c>
       <c r="D4" t="n">
-        <v>3.640153500004089</v>
+        <v>3.833194017410278</v>
       </c>
       <c r="E4" t="n">
-        <v>2.495387077331543</v>
+        <v>2.742809057235718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04135320000932552</v>
+        <v>0.04230810003355145</v>
       </c>
       <c r="G4" t="n">
-        <v>6.177423477347475</v>
+        <v>6.619028174667619</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001102200010791421</v>
+        <v>0.0008155000396072865</v>
       </c>
       <c r="D5" t="n">
-        <v>7.236615400004666</v>
+        <v>7.640292882919312</v>
       </c>
       <c r="E5" t="n">
-        <v>4.86697244644165</v>
+        <v>5.228642225265503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04043880000244826</v>
+        <v>0.04471130005549639</v>
       </c>
       <c r="G5" t="n">
-        <v>12.14512884645956</v>
+        <v>12.91446190827992</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>1023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001436299993656576</v>
+        <v>0.001535299932584167</v>
       </c>
       <c r="D6" t="n">
-        <v>15.08219929999905</v>
+        <v>15.51182794570923</v>
       </c>
       <c r="E6" t="n">
-        <v>10.46873474121094</v>
+        <v>9.752082347869873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04506620000756811</v>
+        <v>0.04853610007558018</v>
       </c>
       <c r="G6" t="n">
-        <v>25.59743654121121</v>
+        <v>25.31398169358727</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>2047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003722699999343604</v>
+        <v>0.003301399992778897</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1898027999996</v>
+        <v>31.88773679733276</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3950366973877</v>
+        <v>19.57717037200928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05904530000407249</v>
+        <v>0.05869019997771829</v>
       </c>
       <c r="G7" t="n">
-        <v>52.64760749739071</v>
+        <v>51.52689876931254</v>
       </c>
     </row>
   </sheetData>
